--- a/Out/OPCIONES PARA IME - 1.xlsx
+++ b/Out/OPCIONES PARA IME - 1.xlsx
@@ -478,16 +478,20 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -498,16 +502,20 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -518,16 +526,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,7 +551,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,25 +565,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -577,25 +593,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,25 +621,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -633,25 +649,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -660,17 +676,9 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -679,26 +687,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -707,26 +699,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -735,26 +711,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -763,17 +723,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -783,17 +735,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -803,17 +747,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -823,17 +759,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -845,16 +773,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -865,16 +801,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -885,16 +829,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -905,16 +857,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -935,18 +895,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -955,18 +915,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -975,18 +935,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -995,17 +955,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -1015,17 +967,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -1035,17 +979,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -1055,17 +991,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1158,17 +1086,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1178,17 +1098,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1198,17 +1110,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1229,26 +1133,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1257,26 +1145,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1285,26 +1157,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1313,26 +1169,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1341,13 +1181,29 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -1359,27 +1215,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -1391,27 +1247,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -1423,27 +1279,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -1453,22 +1309,18 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1477,22 +1329,18 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1501,22 +1349,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1526,21 +1370,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1551,16 +1383,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1571,16 +1411,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1591,16 +1439,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1611,16 +1467,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1629,17 +1493,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -1649,18 +1505,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1669,18 +1525,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1689,18 +1545,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1840,22 +1696,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1864,22 +1712,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1888,22 +1728,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1913,13 +1745,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1929,25 +1761,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1957,25 +1789,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1985,25 +1817,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2013,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2040,17 +1872,9 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2059,26 +1883,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2087,26 +1895,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2115,26 +1907,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2145,13 +1921,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -2165,13 +1941,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -2185,13 +1961,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -2203,17 +1979,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -2223,14 +1991,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2239,14 +2019,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2255,14 +2047,26 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2271,14 +2075,26 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2299,18 +2115,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2319,18 +2135,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2339,18 +2155,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2359,17 +2175,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2379,17 +2187,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2399,17 +2199,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2419,17 +2211,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2524,16 +2308,20 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2544,16 +2332,20 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2564,16 +2356,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2585,7 +2381,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2593,26 +2393,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2621,26 +2405,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2649,26 +2417,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2677,26 +2429,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2705,21 +2441,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -2731,27 +2471,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -2763,27 +2499,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -2795,27 +2527,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2553,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -2845,17 +2565,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -2865,17 +2577,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -2885,17 +2589,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -2905,14 +2601,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2921,14 +2629,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2937,14 +2657,26 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2953,14 +2685,26 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2981,18 +2725,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3001,18 +2745,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3021,18 +2765,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3041,17 +2785,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3061,17 +2797,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3081,17 +2809,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3101,17 +2821,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3203,23 +2915,15 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3227,23 +2931,15 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3251,23 +2947,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3275,15 +2963,15 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3291,26 +2979,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -3319,26 +2991,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3347,26 +3003,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3375,26 +3015,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3403,19 +3027,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3425,25 +3057,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3453,25 +3085,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3481,25 +3113,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3509,13 +3141,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3529,13 +3161,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3549,13 +3181,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
+          <t>QUÍMICA [QUI2]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3567,17 +3199,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -3587,14 +3211,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3603,14 +3239,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3619,14 +3267,26 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3635,14 +3295,26 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3663,18 +3335,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3683,18 +3355,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3703,18 +3375,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3723,17 +3395,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -3743,17 +3407,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -3763,17 +3419,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -3783,17 +3431,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -3888,16 +3528,20 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3908,16 +3552,20 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3928,16 +3576,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3949,7 +3601,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU7]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3957,31 +3613,19 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3989,31 +3633,19 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4021,31 +3653,19 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4053,31 +3673,19 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU3]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4085,19 +3693,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4107,25 +3723,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4135,25 +3751,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4163,25 +3779,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TALLER CMD MEC [TME3]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4189,17 +3805,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -4209,17 +3817,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -4229,17 +3829,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -4249,17 +3841,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA2]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -4269,11 +3853,15 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4285,11 +3873,15 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4301,11 +3893,15 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4317,11 +3913,15 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL3]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4345,18 +3945,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4365,18 +3965,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4385,18 +3985,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI1]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4405,17 +4005,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -4425,17 +4017,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -4445,17 +4029,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -4465,17 +4041,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -4568,22 +4136,14 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4592,22 +4152,14 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4616,22 +4168,14 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4641,13 +4185,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. QUÍMICA [LQU7]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4655,24 +4199,16 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -4683,24 +4219,16 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -4711,24 +4239,16 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -4739,24 +4259,16 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -4767,11 +4279,27 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4781,25 +4309,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4809,25 +4337,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4837,25 +4365,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4865,20 +4393,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4889,20 +4413,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4913,20 +4433,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4935,22 +4451,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4961,13 +4465,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4981,13 +4485,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -5001,13 +4505,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -5021,13 +4525,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
+          <t>TALLER CMD MEC [CMD1]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5039,17 +4543,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -5059,18 +4555,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5079,18 +4575,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5099,18 +4595,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5252,13 +4748,13 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -5272,13 +4768,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -5292,13 +4788,13 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -5323,25 +4819,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5351,25 +4847,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5379,25 +4875,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5407,25 +4903,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5436,12 +4932,12 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5449,31 +4945,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5481,31 +4961,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5513,31 +4977,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU9]</t>
-        </is>
-      </c>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5545,22 +4993,10 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5569,22 +5005,10 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5593,22 +5017,10 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5617,22 +5029,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5643,16 +5043,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5663,16 +5071,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5683,16 +5099,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5703,16 +5127,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5721,17 +5153,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -5741,18 +5165,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5761,18 +5185,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5781,18 +5205,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5931,22 +5355,10 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -5955,22 +5367,10 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5979,22 +5379,10 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -6003,11 +5391,7 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU6]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -6021,25 +5405,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6049,25 +5433,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6077,25 +5461,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6105,25 +5489,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA2]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6134,7 +5518,11 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -6143,24 +5531,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -6171,24 +5547,12 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -6199,24 +5563,12 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>LAB. QUÍMICA [LQU1]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -6229,20 +5581,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -6253,20 +5601,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -6277,20 +5621,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI2]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6299,22 +5639,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL1]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -6325,16 +5653,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -6345,16 +5681,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -6365,16 +5709,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -6385,16 +5737,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -6403,17 +5763,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -6423,18 +5775,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -6443,18 +5795,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -6463,18 +5815,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -6616,17 +5968,13 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -6640,17 +5988,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -6664,17 +6008,13 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -6687,11 +6027,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQU7]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -6701,26 +6037,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -6729,26 +6049,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -6757,26 +6061,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -6785,26 +6073,10 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -6813,11 +6085,31 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6827,25 +6119,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6855,25 +6151,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6883,25 +6183,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISEÑO LÓGICO [DL2]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>LAB. QUÍMICA [LQU1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA3]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6910,21 +6214,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -6934,21 +6226,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -6958,21 +6238,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6982,21 +6250,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>LAB. DISEÑO LÓGICO [LDL2]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -7007,16 +6263,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -7027,16 +6291,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -7047,16 +6319,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -7067,16 +6347,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TALLER CMD MEC [TME1]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>TALLER CMD MEC [CMD1]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS7]</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -7085,17 +6373,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -7105,18 +6385,18 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -7125,18 +6405,18 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -7145,18 +6425,18 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED5]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
